--- a/doc/plan/佰益汇开发计划.xlsx
+++ b/doc/plan/佰益汇开发计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
   <si>
     <t>功能模块</t>
   </si>
@@ -42,108 +42,111 @@
     <t>首页</t>
   </si>
   <si>
+    <t>Doing</t>
+  </si>
+  <si>
+    <t>汝哥</t>
+  </si>
+  <si>
+    <t>客服服务</t>
+  </si>
+  <si>
+    <t>帮助中心</t>
+  </si>
+  <si>
+    <t>帮助中心详情</t>
+  </si>
+  <si>
+    <t>常见问题</t>
+  </si>
+  <si>
+    <t>联系客服</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>关于佰益汇</t>
+  </si>
+  <si>
+    <t>关联第三方</t>
+  </si>
+  <si>
+    <t>推送设置</t>
+  </si>
+  <si>
+    <t>社交</t>
+  </si>
+  <si>
+    <t>我的关注</t>
+  </si>
+  <si>
+    <t>朱会韶</t>
+  </si>
+  <si>
+    <t>待确认关注</t>
+  </si>
+  <si>
+    <t>关注人的交易策略</t>
+  </si>
+  <si>
+    <t>关注人的交易记录</t>
+  </si>
+  <si>
+    <t>我的粉丝</t>
+  </si>
+  <si>
+    <t>粉丝的交易策略</t>
+  </si>
+  <si>
+    <t>粉丝的交易记录</t>
+  </si>
+  <si>
+    <t>我的交易</t>
+  </si>
+  <si>
+    <t>我的交易历史</t>
+  </si>
+  <si>
+    <t>我的交易历史详情</t>
+  </si>
+  <si>
+    <t>我的交易日志</t>
+  </si>
+  <si>
+    <t>邀请</t>
+  </si>
+  <si>
+    <t>邀请码说明</t>
+  </si>
+  <si>
+    <t>推荐好友</t>
+  </si>
+  <si>
+    <t>推荐好友分享</t>
+  </si>
+  <si>
+    <t>商品市场</t>
+  </si>
+  <si>
+    <t>我的武器列表</t>
+  </si>
+  <si>
+    <t>我的武器详情</t>
+  </si>
+  <si>
+    <t>历史武器记录</t>
+  </si>
+  <si>
+    <t>历史武器记录详情</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
     <t>Todo</t>
   </si>
   <si>
-    <t>汝哥</t>
-  </si>
-  <si>
-    <t>客服服务</t>
-  </si>
-  <si>
-    <t>帮助中心</t>
-  </si>
-  <si>
-    <t>帮助中心详情</t>
-  </si>
-  <si>
-    <t>常见问题</t>
-  </si>
-  <si>
-    <t>联系客服</t>
-  </si>
-  <si>
-    <t>设置</t>
-  </si>
-  <si>
-    <t>关于佰益汇</t>
-  </si>
-  <si>
-    <t>关联第三方</t>
-  </si>
-  <si>
-    <t>推送设置</t>
-  </si>
-  <si>
-    <t>社交</t>
-  </si>
-  <si>
-    <t>我的关注</t>
-  </si>
-  <si>
-    <t>朱会韶</t>
-  </si>
-  <si>
-    <t>待确认关注</t>
-  </si>
-  <si>
-    <t>关注人的交易策略</t>
-  </si>
-  <si>
-    <t>关注人的交易记录</t>
-  </si>
-  <si>
-    <t>我的粉丝</t>
-  </si>
-  <si>
-    <t>粉丝的交易策略</t>
-  </si>
-  <si>
-    <t>粉丝的交易记录</t>
-  </si>
-  <si>
-    <t>我的交易</t>
-  </si>
-  <si>
-    <t>我的交易历史</t>
-  </si>
-  <si>
-    <t>我的交易历史详情</t>
-  </si>
-  <si>
-    <t>我的交易日志</t>
-  </si>
-  <si>
-    <t>邀请</t>
-  </si>
-  <si>
-    <t>邀请码说明</t>
-  </si>
-  <si>
-    <t>推荐好友</t>
-  </si>
-  <si>
-    <t>推荐好友分享</t>
-  </si>
-  <si>
-    <t>商品市场</t>
-  </si>
-  <si>
-    <t>我的武器列表</t>
-  </si>
-  <si>
-    <t>我的武器详情</t>
-  </si>
-  <si>
-    <t>历史武器记录</t>
-  </si>
-  <si>
-    <t>历史武器记录详情</t>
-  </si>
-  <si>
-    <t>说明</t>
-  </si>
-  <si>
     <t>高手排行</t>
   </si>
   <si>
@@ -178,6 +181,9 @@
   </si>
   <si>
     <t>交易比赛规则</t>
+  </si>
+  <si>
+    <t>最新活动</t>
   </si>
   <si>
     <t>抽奖活动列表</t>
@@ -242,10 +248,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -268,8 +274,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,8 +317,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,6 +330,36 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -313,53 +379,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,38 +410,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,193 +439,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,6 +686,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -696,6 +711,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,6 +748,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -732,56 +782,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -790,149 +790,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -964,15 +964,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1323,10 +1314,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1373,7 +1364,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E2" s="7">
         <v>43241</v>
@@ -1394,7 +1385,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E3" s="7">
         <v>43242</v>
@@ -1413,7 +1404,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E4" s="7">
         <v>43242</v>
@@ -1432,7 +1423,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E5" s="7">
         <v>43242</v>
@@ -1451,7 +1442,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E6" s="7">
         <v>43242</v>
@@ -1481,7 +1472,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E8" s="7">
         <v>43243</v>
@@ -1500,7 +1491,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E9" s="7">
         <v>43244</v>
@@ -1519,7 +1510,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E10" s="7">
         <v>43243</v>
@@ -1549,7 +1540,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E12" s="7">
         <v>43241</v>
@@ -1568,7 +1559,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E13" s="7">
         <v>43241</v>
@@ -1587,7 +1578,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E14" s="7">
         <v>43242</v>
@@ -1606,7 +1597,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E15" s="7">
         <v>43242</v>
@@ -1625,7 +1616,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E16" s="7">
         <v>43243</v>
@@ -1644,7 +1635,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E17" s="7">
         <v>43243</v>
@@ -1663,7 +1654,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E18" s="7">
         <v>43243</v>
@@ -1683,7 +1674,7 @@
       <c r="G19" s="8"/>
     </row>
     <row r="20" ht="16.5" spans="1:7">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1693,7 +1684,7 @@
         <v>8</v>
       </c>
       <c r="D20" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E20" s="7">
         <v>43245</v>
@@ -1704,7 +1695,7 @@
       <c r="G20" s="8"/>
     </row>
     <row r="21" ht="16.5" spans="1:7">
-      <c r="A21" s="12"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="8" t="s">
         <v>29</v>
       </c>
@@ -1712,7 +1703,7 @@
         <v>8</v>
       </c>
       <c r="D21" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E21" s="7">
         <v>43246</v>
@@ -1723,7 +1714,7 @@
       <c r="G21" s="8"/>
     </row>
     <row r="22" ht="16.5" spans="1:7">
-      <c r="A22" s="12"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="8" t="s">
         <v>30</v>
       </c>
@@ -1731,7 +1722,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E22" s="7">
         <v>43246</v>
@@ -1742,7 +1733,7 @@
       <c r="G22" s="8"/>
     </row>
     <row r="23" ht="16.5" spans="1:7">
-      <c r="A23" s="12"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="8" t="s">
         <v>31</v>
       </c>
@@ -1750,7 +1741,7 @@
         <v>8</v>
       </c>
       <c r="D23" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E23" s="7">
         <v>43247</v>
@@ -1761,7 +1752,7 @@
       <c r="G23" s="8"/>
     </row>
     <row r="24" ht="16.5" spans="1:7">
-      <c r="A24" s="13"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="8"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1780,7 +1771,7 @@
         <v>8</v>
       </c>
       <c r="D25" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E25" s="7">
         <v>43248</v>
@@ -1799,7 +1790,7 @@
         <v>8</v>
       </c>
       <c r="D26" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E26" s="7">
         <v>43248</v>
@@ -1818,7 +1809,7 @@
         <v>8</v>
       </c>
       <c r="D27" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E27" s="7">
         <v>43248</v>
@@ -1848,7 +1839,7 @@
         <v>8</v>
       </c>
       <c r="D29" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E29" s="7">
         <v>43244</v>
@@ -1867,7 +1858,7 @@
         <v>8</v>
       </c>
       <c r="D30" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E30" s="7">
         <v>43244</v>
@@ -1886,7 +1877,7 @@
         <v>8</v>
       </c>
       <c r="D31" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E31" s="7">
         <v>43245</v>
@@ -1905,7 +1896,7 @@
         <v>8</v>
       </c>
       <c r="D32" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E32" s="7">
         <v>43245</v>
@@ -1924,7 +1915,7 @@
         <v>8</v>
       </c>
       <c r="D33" s="6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E33" s="7">
         <v>43246</v>
@@ -1940,7 +1931,7 @@
         <v>41</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D34" s="6">
         <v>0</v>
@@ -1964,16 +1955,16 @@
     </row>
     <row r="36" ht="16.5" spans="1:7">
       <c r="A36" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="6">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E36" s="7">
         <v>43247</v>
@@ -1986,13 +1977,13 @@
     <row r="37" ht="16.5" spans="1:7">
       <c r="A37" s="9"/>
       <c r="B37" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="6">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E37" s="7">
         <v>43248</v>
@@ -2005,13 +1996,13 @@
     <row r="38" ht="16.5" spans="1:7">
       <c r="A38" s="9"/>
       <c r="B38" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="6">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E38" s="7">
         <v>43249</v>
@@ -2024,13 +2015,13 @@
     <row r="39" ht="16.5" spans="1:7">
       <c r="A39" s="9"/>
       <c r="B39" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="6">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E39" s="7">
         <v>43250</v>
@@ -2043,10 +2034,10 @@
     <row r="40" ht="16.5" spans="1:7">
       <c r="A40" s="9"/>
       <c r="B40" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D40" s="6">
         <v>0</v>
@@ -2062,10 +2053,10 @@
     <row r="41" ht="16.5" spans="1:7">
       <c r="A41" s="9"/>
       <c r="B41" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D41" s="6">
         <v>0</v>
@@ -2081,10 +2072,10 @@
     <row r="42" ht="16.5" spans="1:7">
       <c r="A42" s="9"/>
       <c r="B42" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D42" s="6">
         <v>0</v>
@@ -2108,16 +2099,16 @@
     </row>
     <row r="44" ht="16.5" spans="1:7">
       <c r="A44" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E44" s="7">
         <v>43253</v>
@@ -2130,13 +2121,13 @@
     <row r="45" ht="16.5" spans="1:7">
       <c r="A45" s="9"/>
       <c r="B45" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E45" s="7">
         <v>43253</v>
@@ -2149,13 +2140,13 @@
     <row r="46" ht="16.5" spans="1:7">
       <c r="A46" s="9"/>
       <c r="B46" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E46" s="7">
         <v>43254</v>
@@ -2168,13 +2159,13 @@
     <row r="47" ht="16.5" spans="1:7">
       <c r="A47" s="9"/>
       <c r="B47" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E47" s="7">
         <v>43254</v>
@@ -2187,16 +2178,16 @@
     <row r="48" ht="16.5" spans="1:7">
       <c r="A48" s="9"/>
       <c r="B48" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E48" s="7">
-        <v>43255</v>
+        <v>43254</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>21</v>
@@ -2206,13 +2197,13 @@
     <row r="49" ht="16.5" spans="1:7">
       <c r="A49" s="9"/>
       <c r="B49" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E49" s="7">
         <v>43255</v>
@@ -2225,16 +2216,16 @@
     <row r="50" ht="16.5" spans="1:7">
       <c r="A50" s="9"/>
       <c r="B50" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E50" s="7">
-        <v>43256</v>
+        <v>43255</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>21</v>
@@ -2244,13 +2235,13 @@
     <row r="51" ht="16.5" spans="1:7">
       <c r="A51" s="9"/>
       <c r="B51" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E51" s="7">
         <v>43256</v>
@@ -2263,16 +2254,16 @@
     <row r="52" ht="16.5" spans="1:7">
       <c r="A52" s="9"/>
       <c r="B52" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E52" s="7">
-        <v>43258</v>
+        <v>43256</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>21</v>
@@ -2282,13 +2273,13 @@
     <row r="53" ht="16.5" spans="1:7">
       <c r="A53" s="9"/>
       <c r="B53" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E53" s="7">
         <v>43258</v>
@@ -2301,16 +2292,16 @@
     <row r="54" ht="16.5" spans="1:7">
       <c r="A54" s="9"/>
       <c r="B54" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E54" s="7">
-        <v>43259</v>
+        <v>43258</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>21</v>
@@ -2320,13 +2311,13 @@
     <row r="55" ht="16.5" spans="1:7">
       <c r="A55" s="9"/>
       <c r="B55" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E55" s="7">
         <v>43259</v>
@@ -2337,45 +2328,45 @@
       <c r="G55" s="8"/>
     </row>
     <row r="56" ht="16.5" spans="1:7">
-      <c r="A56" s="10"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="E56" s="7">
+        <v>43259</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="G56" s="8"/>
     </row>
     <row r="57" ht="16.5" spans="1:7">
-      <c r="A57" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="6">
-        <v>0</v>
-      </c>
-      <c r="E57" s="7">
-        <v>43249</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="A57" s="10"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
       <c r="G57" s="8"/>
     </row>
     <row r="58" ht="16.5" spans="1:7">
-      <c r="A58" s="9"/>
+      <c r="A58" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="B58" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E58" s="7">
         <v>43249</v>
@@ -2388,13 +2379,13 @@
     <row r="59" ht="16.5" spans="1:7">
       <c r="A59" s="9"/>
       <c r="B59" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E59" s="7">
         <v>43249</v>
@@ -2405,48 +2396,48 @@
       <c r="G59" s="8"/>
     </row>
     <row r="60" ht="16.5" spans="1:7">
-      <c r="A60" s="10"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
+      <c r="A60" s="9"/>
+      <c r="B60" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="E60" s="7">
+        <v>43249</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="G60" s="8"/>
     </row>
     <row r="61" ht="16.5" spans="1:7">
-      <c r="A61" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="6">
-        <v>0</v>
-      </c>
-      <c r="E61" s="7">
-        <v>43250</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="A61" s="10"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
       <c r="G61" s="8"/>
     </row>
     <row r="62" ht="16.5" spans="1:7">
-      <c r="A62" s="12"/>
+      <c r="A62" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="B62" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D62" s="6">
         <v>0</v>
       </c>
       <c r="E62" s="7">
-        <v>43251</v>
+        <v>43250</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>9</v>
@@ -2454,18 +2445,18 @@
       <c r="G62" s="8"/>
     </row>
     <row r="63" ht="16.5" spans="1:7">
-      <c r="A63" s="12"/>
+      <c r="A63" s="9"/>
       <c r="B63" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D63" s="6">
         <v>0</v>
       </c>
       <c r="E63" s="7">
-        <v>43250</v>
+        <v>43251</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>9</v>
@@ -2473,18 +2464,18 @@
       <c r="G63" s="8"/>
     </row>
     <row r="64" ht="16.5" spans="1:7">
-      <c r="A64" s="12"/>
+      <c r="A64" s="9"/>
       <c r="B64" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D64" s="6">
         <v>0</v>
       </c>
       <c r="E64" s="7">
-        <v>43251</v>
+        <v>43250</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>9</v>
@@ -2492,18 +2483,18 @@
       <c r="G64" s="8"/>
     </row>
     <row r="65" ht="16.5" spans="1:7">
-      <c r="A65" s="12"/>
+      <c r="A65" s="9"/>
       <c r="B65" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D65" s="6">
         <v>0</v>
       </c>
       <c r="E65" s="7">
-        <v>43252</v>
+        <v>43251</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>9</v>
@@ -2511,12 +2502,12 @@
       <c r="G65" s="8"/>
     </row>
     <row r="66" ht="16.5" spans="1:7">
-      <c r="A66" s="12"/>
+      <c r="A66" s="9"/>
       <c r="B66" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D66" s="6">
         <v>0</v>
@@ -2530,13 +2521,32 @@
       <c r="G66" s="8"/>
     </row>
     <row r="67" ht="16.5" spans="1:7">
-      <c r="A67" s="13"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
+      <c r="A67" s="9"/>
+      <c r="B67" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67" s="6">
+        <v>0</v>
+      </c>
+      <c r="E67" s="7">
+        <v>43252</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="G67" s="8"/>
+    </row>
+    <row r="68" ht="16.5" spans="1:7">
+      <c r="A68" s="10"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2547,9 +2557,9 @@
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="A29:A35"/>
     <mergeCell ref="A36:A43"/>
-    <mergeCell ref="A44:A56"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A61:A67"/>
+    <mergeCell ref="A44:A57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A62:A68"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
